--- a/000 AGENCIA INFORMACION DI/Colecciones.xlsx
+++ b/000 AGENCIA INFORMACION DI/Colecciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA INTELLIGENCE Dropbox\DI Monitoreo II\000 AGENCIA INFORMACION DI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7971F42A-506A-4D5A-9975-26129AEBCE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABA76B2-D0B3-4FF2-9D5A-39D5BD358E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7345EFD8-A04C-4A0A-9878-082A8059EEE0}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="109">
   <si>
     <t>Colección</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Arte y cultura</t>
   </si>
   <si>
-    <t>Delito</t>
-  </si>
-  <si>
     <t>Social</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>Elecciones</t>
   </si>
   <si>
-    <t>Política y gobierno</t>
-  </si>
-  <si>
     <t>Empresas</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>Energía</t>
   </si>
   <si>
-    <t>Estado de la Salud</t>
-  </si>
-  <si>
     <t>Salud</t>
   </si>
   <si>
@@ -124,21 +115,12 @@
     <t>Socioeconómico</t>
   </si>
   <si>
-    <t>Métricas de la Educación</t>
-  </si>
-  <si>
     <t>Educación</t>
   </si>
   <si>
-    <t>Municipio Educación</t>
-  </si>
-  <si>
     <t>Gobiernos locales</t>
   </si>
   <si>
-    <t>Pandemia</t>
-  </si>
-  <si>
     <t>Pesca y Acuicultura</t>
   </si>
   <si>
@@ -151,9 +133,6 @@
     <t>Pueblos Indígenas</t>
   </si>
   <si>
-    <t>Salud - Mujer</t>
-  </si>
-  <si>
     <t>Mujeres</t>
   </si>
   <si>
@@ -163,9 +142,6 @@
     <t>Tránsito</t>
   </si>
   <si>
-    <t>Transporte y Tránsito</t>
-  </si>
-  <si>
     <t>Transporte</t>
   </si>
   <si>
@@ -178,15 +154,6 @@
     <t>idcoleccion</t>
   </si>
   <si>
-    <t>Genérico</t>
-  </si>
-  <si>
-    <t>Agencia de Información</t>
-  </si>
-  <si>
-    <t>Ranking</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -203,6 +170,210 @@
   </si>
   <si>
     <t>idsector</t>
+  </si>
+  <si>
+    <t>Ciencia</t>
+  </si>
+  <si>
+    <t>Comunicación y Marketing</t>
+  </si>
+  <si>
+    <t>Finanzas y Seguros</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>Política y Gobierno</t>
+  </si>
+  <si>
+    <t>Recursos y Productos Industriales</t>
+  </si>
+  <si>
+    <t>Tecnología Internet y Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Transporte y tránsito</t>
+  </si>
+  <si>
+    <t>Turismo</t>
+  </si>
+  <si>
+    <t>Ganadería</t>
+  </si>
+  <si>
+    <t>Ciencia y Transferencia Tecnológica</t>
+  </si>
+  <si>
+    <t>Radio y Televisión</t>
+  </si>
+  <si>
+    <t>Medios escritos</t>
+  </si>
+  <si>
+    <t>Publicidad y Márketing</t>
+  </si>
+  <si>
+    <t>Comercio</t>
+  </si>
+  <si>
+    <t>Industrias</t>
+  </si>
+  <si>
+    <t>Impuestos</t>
+  </si>
+  <si>
+    <t>e-Commerce</t>
+  </si>
+  <si>
+    <t>Métricas de la educación</t>
+  </si>
+  <si>
+    <t>Educación inicial</t>
+  </si>
+  <si>
+    <t>Educación primaria y secundaria</t>
+  </si>
+  <si>
+    <t>Educación superior</t>
+  </si>
+  <si>
+    <t>Clima y Tiempo</t>
+  </si>
+  <si>
+    <t>Residuos</t>
+  </si>
+  <si>
+    <t>Tecnología Medioambiental / Ecológica</t>
+  </si>
+  <si>
+    <t>Desastres</t>
+  </si>
+  <si>
+    <t>Evaluación de Impacto Ambiental</t>
+  </si>
+  <si>
+    <t>Geografía</t>
+  </si>
+  <si>
+    <t>Medio Ambiente</t>
+  </si>
+  <si>
+    <t>Áreas protegidas</t>
+  </si>
+  <si>
+    <t>Seguros</t>
+  </si>
+  <si>
+    <t>Inversión</t>
+  </si>
+  <si>
+    <t>Servicios Financieros</t>
+  </si>
+  <si>
+    <t>Objetivos de Desarrollo Sostenible</t>
+  </si>
+  <si>
+    <t>Organismos Intergubernamentales</t>
+  </si>
+  <si>
+    <t>Salvaguardas</t>
+  </si>
+  <si>
+    <t>Municipio</t>
+  </si>
+  <si>
+    <t>Liderazgo</t>
+  </si>
+  <si>
+    <t>Política</t>
+  </si>
+  <si>
+    <t>Autonomía Económica</t>
+  </si>
+  <si>
+    <t>Emprendimiento y Organizaciones</t>
+  </si>
+  <si>
+    <t>Trabajo</t>
+  </si>
+  <si>
+    <t>Partidos Políticos y Coaliciones</t>
+  </si>
+  <si>
+    <t>Transparencia</t>
+  </si>
+  <si>
+    <t>Convención Constitucional</t>
+  </si>
+  <si>
+    <t>Combustibles fósiles</t>
+  </si>
+  <si>
+    <t>Industria química</t>
+  </si>
+  <si>
+    <t>Minería metales y minerales</t>
+  </si>
+  <si>
+    <t>Papel de pulpa</t>
+  </si>
+  <si>
+    <t>Plástico y caucho</t>
+  </si>
+  <si>
+    <t>Refinería de petróleo</t>
+  </si>
+  <si>
+    <t>Estado de la salud</t>
+  </si>
+  <si>
+    <t>Enfermedades mundiales</t>
+  </si>
+  <si>
+    <t>Establecimientos de salud y farmacia</t>
+  </si>
+  <si>
+    <t>Tecnología médica</t>
+  </si>
+  <si>
+    <t>Sistemas de cobertura</t>
+  </si>
+  <si>
+    <t>Programas de Salud</t>
+  </si>
+  <si>
+    <t>Médicos</t>
+  </si>
+  <si>
+    <t>Delincuencia y aplicación de la ley</t>
+  </si>
+  <si>
+    <t>Migración</t>
+  </si>
+  <si>
+    <t>Religión</t>
+  </si>
+  <si>
+    <t>Calidad de Vida</t>
+  </si>
+  <si>
+    <t>Pobreza</t>
+  </si>
+  <si>
+    <t>Telecomunicaciones</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Alojamiento</t>
+  </si>
+  <si>
+    <t>Viajes</t>
+  </si>
+  <si>
+    <t>Vivienda</t>
   </si>
 </sst>
 </file>
@@ -233,7 +404,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +423,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -265,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -275,26 +452,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -335,6 +498,21 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -358,8 +536,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1173480</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>175259</xdr:rowOff>
     </xdr:to>
@@ -430,14 +608,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1508760</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>7621</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1645920</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>175261</xdr:rowOff>
     </xdr:to>
@@ -531,14 +709,14 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="Sector" xr10:uid="{E8589D29-46C4-4FAD-A229-2DE5F9C17DE7}" cache="SegmentaciónDeDatos_Sector" caption="Sector" columnCount="3" rowHeight="234950"/>
+  <slicer name="Sector" xr10:uid="{E8589D29-46C4-4FAD-A229-2DE5F9C17DE7}" cache="SegmentaciónDeDatos_Sector" caption="Sector" startItem="9" columnCount="3" rowHeight="234950"/>
   <slicer name="Estado" xr10:uid="{B3F80E20-B286-4BB9-8AF8-1FABD69E6579}" cache="SegmentaciónDeDatos_Estado" caption="Estado" rowHeight="234950"/>
 </slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB22B2C7-EBFB-44A6-BDC0-99AD32E6BFD8}" name="colecciones" displayName="colecciones" ref="A9:F38" totalsRowShown="0">
-  <autoFilter ref="A9:F38" xr:uid="{AB22B2C7-EBFB-44A6-BDC0-99AD32E6BFD8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AB22B2C7-EBFB-44A6-BDC0-99AD32E6BFD8}" name="colecciones" displayName="colecciones" ref="A9:F93" totalsRowShown="0">
+  <autoFilter ref="A9:F93" xr:uid="{AB22B2C7-EBFB-44A6-BDC0-99AD32E6BFD8}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{909B5BEE-34AE-44B8-AC66-B71A5D624FA7}" name="idcoleccion">
       <calculatedColumnFormula>+IF(D10=D9,A9+1,C10*10)</calculatedColumnFormula>
@@ -549,7 +727,7 @@
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F950F454-D028-40BF-A08B-041925C65DED}" name="Sector"/>
     <tableColumn id="5" xr3:uid="{A376CAE3-3CC3-45FE-86FA-D9E294F11046}" name="Descripción"/>
-    <tableColumn id="6" xr3:uid="{28508418-56ED-4966-896F-937BE6CD88EA}" name="Estado" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{28508418-56ED-4966-896F-937BE6CD88EA}" name="Estado" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -852,17 +1030,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFEBC1E-D1AF-4105-BBD2-AC4835899097}">
-  <dimension ref="A9:F38"/>
+  <dimension ref="A9:F93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <pane ySplit="9" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
     <col min="5" max="5" width="31.88671875" customWidth="1"/>
@@ -870,22 +1048,22 @@
   <sheetData>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -893,7 +1071,7 @@
         <f>+C10*10</f>
         <v>100</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="1">
@@ -903,7 +1081,7 @@
         <v>3</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -911,8 +1089,8 @@
         <f>+IF(D11=D10,A10+1,C11*10)</f>
         <v>101</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <f>+IF(D11=D10,C10,C10+2)</f>
@@ -922,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -930,527 +1108,1464 @@
         <f t="shared" ref="A12:A36" si="0">+IF(D12=D11,A11+1,C12*10)</f>
         <v>102</v>
       </c>
-      <c r="B12" t="s">
-        <v>30</v>
+      <c r="B12" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C36" si="1">+IF(D12=D11,C11,C11+2)</f>
+        <f t="shared" ref="C12:C75" si="1">+IF(D12=D11,C11,C11+2)</f>
         <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
+        <v>103</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
+        <v>120</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>182</v>
-      </c>
-      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C19">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>183</v>
-      </c>
-      <c r="B20" t="s">
-        <v>22</v>
+        <v>181</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>55</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>221</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
+        <v>184</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C23">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="C24">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D24" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>241</v>
-      </c>
-      <c r="B25" t="s">
-        <v>31</v>
+        <v>200</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="C25">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="B26" t="s">
-        <v>19</v>
+        <v>201</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C26">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>261</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
+        <v>202</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="C27">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C28">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>281</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
+        <v>220</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="C29">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>282</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
+        <v>221</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C30">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>283</v>
+        <v>222</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C31">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="B32" t="s">
-        <v>23</v>
+        <v>223</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C32">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="C33">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C34">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="D34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
-        <v>340</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C35">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
-        <v>341</v>
+        <v>227</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C36">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>+IF(D37=D36,A36+1,C37*10)</f>
-        <v>990</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C37">
-        <v>99</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>+IF(D38=D37,A37+1,C38*10)</f>
-        <v>991</v>
+        <v>229</v>
       </c>
       <c r="B38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" ref="A39:A70" si="2">+IF(D39=D38,A38+1,C39*10)</f>
+        <v>230</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>231</v>
+      </c>
+      <c r="B40" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="B42" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>242</v>
+      </c>
+      <c r="B43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="B44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>261</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+      <c r="B46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>280</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="D47" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>301</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>302</v>
+      </c>
+      <c r="B50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="B51" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>304</v>
+      </c>
+      <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D52" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>305</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>306</v>
+      </c>
+      <c r="B54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>307</v>
+      </c>
+      <c r="B55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>320</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D56" t="s">
         <v>45</v>
       </c>
-      <c r="C38">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>321</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>322</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>323</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>324</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
+        <v>46</v>
+      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>341</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D63" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>343</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D64" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>344</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>46</v>
+      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>345</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D66" t="s">
+        <v>46</v>
+      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>361</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>362</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>363</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" ref="A71:A93" si="3">+IF(D71=D70,A70+1,C71*10)</f>
+        <v>364</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f t="shared" si="3"/>
+        <v>365</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="3"/>
+        <v>366</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f t="shared" si="3"/>
+        <v>380</v>
+      </c>
+      <c r="B74" t="s">
         <v>99</v>
       </c>
-      <c r="D38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" si="3"/>
+        <v>381</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="3"/>
+        <v>382</v>
+      </c>
+      <c r="B76" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76">
+        <f t="shared" ref="C76:C93" si="4">+IF(D76=D75,C75,C75+2)</f>
+        <v>38</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="3"/>
+        <v>383</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f t="shared" si="3"/>
+        <v>384</v>
+      </c>
+      <c r="B78" t="s">
+        <v>100</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" si="3"/>
+        <v>385</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f t="shared" si="3"/>
+        <v>386</v>
+      </c>
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="3"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="3"/>
+        <v>387</v>
+      </c>
+      <c r="B81" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="3"/>
+        <v>401</v>
+      </c>
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="D83" t="s">
+        <v>21</v>
+      </c>
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="3"/>
+        <v>420</v>
+      </c>
+      <c r="B84" t="s">
+        <v>104</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="D84" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" si="3"/>
+        <v>421</v>
+      </c>
+      <c r="B85" t="s">
+        <v>105</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="D85" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f t="shared" si="3"/>
+        <v>440</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="D86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" si="3"/>
+        <v>441</v>
+      </c>
+      <c r="B87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="D87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="3"/>
+        <v>460</v>
+      </c>
+      <c r="B88" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="D88" t="s">
         <v>49</v>
       </c>
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" si="3"/>
+        <v>461</v>
+      </c>
+      <c r="B89" t="s">
+        <v>107</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="D89" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f t="shared" si="3"/>
+        <v>462</v>
+      </c>
+      <c r="B90" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="D90" t="s">
+        <v>49</v>
+      </c>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f t="shared" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="3"/>
+        <v>481</v>
+      </c>
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f t="shared" si="3"/>
+        <v>482</v>
+      </c>
+      <c r="B93" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="D93" t="s">
+        <v>8</v>
+      </c>
+      <c r="F93" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A10:E36">
     <sortCondition ref="D10:D36"/>
   </sortState>
-  <conditionalFormatting sqref="F10:F38">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+  <conditionalFormatting sqref="F10:F93">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Falta Mucho"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Medio Camino"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Casi"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"No está claro"</formula>
     </cfRule>
   </conditionalFormatting>
